--- a/loaded_influencer_data/jaylasteinnn/jaylasteinnn_video.xlsx
+++ b/loaded_influencer_data/jaylasteinnn/jaylasteinnn_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7440890553572576558</t>
         </is>
@@ -515,16 +515,16 @@
         <v>2200000</v>
       </c>
       <c r="C2" t="n">
-        <v>222500</v>
+        <v>223100</v>
       </c>
       <c r="D2" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7480</v>
+        <v>7523</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10.12545454545455</v>
+        <v>10.15277272727273</v>
       </c>
       <c r="I2" t="n">
-        <v>10.11363636363636</v>
+        <v>10.14090909090909</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01181818181818182</v>
+        <v>0.01186363636363636</v>
       </c>
       <c r="L2" t="n">
-        <v>0.34</v>
+        <v>0.3419545454545455</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7407146210919910702</t>
         </is>
@@ -568,7 +568,7 @@
         <v>1100000</v>
       </c>
       <c r="C3" t="n">
-        <v>194000</v>
+        <v>194200</v>
       </c>
       <c r="D3" t="n">
         <v>196</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>44200</v>
+        <v>44300</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>17.65418181818182</v>
+        <v>17.67236363636363</v>
       </c>
       <c r="I3" t="n">
-        <v>17.63636363636364</v>
+        <v>17.65454545454545</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0.01781818181818182</v>
       </c>
       <c r="L3" t="n">
-        <v>4.018181818181818</v>
+        <v>4.027272727272727</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -613,19 +613,19 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7432866180848717099</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>551300</v>
+        <v>552000</v>
       </c>
       <c r="C4" t="n">
         <v>151900</v>
       </c>
       <c r="D4" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -641,19 +641,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>27.62397968438237</v>
+        <v>27.58876811594203</v>
       </c>
       <c r="I4" t="n">
-        <v>27.55305641211682</v>
+        <v>27.51811594202899</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07092327226555414</v>
+        <v>0.07065217391304349</v>
       </c>
       <c r="L4" t="n">
-        <v>4.081262470524216</v>
+        <v>4.076086956521739</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -667,2314 +667,2367 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jaylasteinnn/video/7489516465880567086</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>653</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Laufey girl: a girl who listens to Laufey🤍
+Products:
+@drunkelephant lala retro whipped cream</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3.36906584992343</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.215926493108729</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1531393568147014</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1531393568147014</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jaylasteinnn/video/7488913152634064159</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>685</v>
+      </c>
+      <c r="C6" t="n">
+        <v>59</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Your new comfort creator🫶🏽</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9.051094890510949</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.613138686131387</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4379562043795621</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.145985401459854</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jaylasteinnn/video/7488894278031166750</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1383</v>
+      </c>
+      <c r="C7" t="n">
+        <v>109</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>The day I accepted that my curls weren’t going to look flat on my head is the day I found peace</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8.098336948662329</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.881417208966016</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2169197396963124</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2169197396963124</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jaylasteinnn/video/7488835562963471647</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1824</v>
+      </c>
+      <c r="C8" t="n">
+        <v>233</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Call me RELATIONSHIP EXPERT JAYLA O WHATEVAAA🤭
+lol but yall this is my last video like this for the week! We’ve done this little series for 8 days straight and I’m loving that yall love it sm🤭 thanks for the feedback, all is appreciated ♥️ I’ll get started again with these on Monday!</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>13.04824561403509</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.77412280701754</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2741228070175438</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.4385964912280702</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jaylasteinnn/video/7488420662156086574</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1153</v>
+      </c>
+      <c r="C9" t="n">
+        <v>128</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sorry to all of my girlies in Alabama I still luh yall🤣🫶🏽
+I hope yall enjoyed this one! Do you agree, partially agree, or disagree?</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>11.79531656548135</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11.10147441457068</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.6938421509106678</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3469210754553339</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jaylasteinnn/video/7488050163815025950</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4986</v>
+      </c>
+      <c r="C10" t="n">
+        <v>668</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>35</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Like why are we normalizing dragging our friends into bad situations because it’s “fun”💔
+Lmk what you think of these, do you agree partially agree or disagree?</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>13.59807460890493</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.39751303650221</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2005615724027277</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7019655034095468</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7486895051965189422</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B11" t="n">
         <v>2506</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" t="n">
         <v>337</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D11" t="n">
         <v>6</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>10</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>I never said I wasn’t judgmental I just judge the right things 🤭
 What do you think about my takes do you agree, disagree, or partially agree?</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H11" t="n">
         <v>13.68715083798883</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I11" t="n">
         <v>13.44772545889864</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.2394253790901835</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L11" t="n">
         <v>0.3990422984836393</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7486178554611305759</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B12" t="n">
         <v>6418</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12" t="n">
         <v>794</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>10</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>lol the second to last one IRKS ME🫠
 Getting ready for 3 events but thought I’d give a daily dose of Jayla opinion that no one asked for✨</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H12" t="n">
         <v>12.52726706138984</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I12" t="n">
         <v>12.37145528201932</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.1558117793705204</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L12" t="n">
         <v>0.1558117793705204</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7485857279892344107</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B13" t="n">
         <v>1155</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C13" t="n">
         <v>77</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D13" t="n">
         <v>3</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Mixed girls who survived growing up with only white people STAND UP🧍🏽‍♀️
 Nah bc why were people so adamant on creating my own sense of self FOR me? Almost like I should be what you want me to be, because that’s what you think a black person is supposed to be like. But also, just the internal battle of like - am I being too much? Or am I doing too little? Am I acting white enough for these people, but black enough for these other people? Like oof, if only she knew how’d she’d feel in just a few years…</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H13" t="n">
         <v>6.926406926406926</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I13" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.2597402597402597</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7485816200488897823</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B14" t="n">
         <v>1347</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>92</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Mixed girls who survived growing up with only white people STAND UP🧍🏽‍♀️
 Nah bc why were people so adamant on creating my own sense of self FOR me? Almost like I should be what you want me to be, because that’s what you think a black person is supposed to be like. But also, just the internal battle of like - am I being too much? Or am I doing too little? Am I acting white enough for these people, but black enough for these other people? Like oof, if only she knew how’d she’d feel in just a few years…</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H14" t="n">
         <v>6.978470675575353</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>6.829992576095026</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.1484780994803266</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L14" t="n">
         <v>0.1484780994803266</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7485452773111155999</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B15" t="n">
         <v>1149</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>106</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>I think yap seshes are my calling
 I took the last few days to strategize and rethink my content and the path I want to go down. So I guess this is a little snippet into my brain; what I’m struggling with content wise and why I started doing this in the first place. I hope this resonates with somebody!</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>9.48651000870322</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I15" t="n">
         <v>9.225413402959095</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.2610966057441254</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7483994860681202975</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>635</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>41</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>7</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Foundationless makeup that’s ACTUALLY cute💋</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H16" t="n">
         <v>7.559055118110236</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I16" t="n">
         <v>6.456692913385827</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.102362204724409</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L16" t="n">
         <v>0.4724409448818898</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7483619435639606559</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B17" t="n">
         <v>682</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>70</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>11</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>4</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>One thing abt me is imma always switch up my editing! lol</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H17" t="n">
         <v>11.87683284457478</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I17" t="n">
         <v>10.26392961876833</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1.612903225806452</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L17" t="n">
         <v>0.5865102639296188</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7483262381741624619</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B18" t="n">
         <v>497</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>53</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Mini clothing haul from a beauty influencer xoxo</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>11.46881287726358</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I18" t="n">
         <v>10.66398390342052</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.8048289738430584</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L18" t="n">
         <v>0.2012072434607646</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7483234654410083626</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>731</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>39</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>4</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>If someone threw away all of my makeup this is what I’d buy first✨💋
 How do we like this editing?</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>5.88235294117647</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>5.33515731874145</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.5471956224350205</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L19" t="n">
         <v>0.2735978112175103</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7482853195161554222</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B20" t="n">
         <v>1148</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>61</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>@Josie Maran I luh y’all</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H20" t="n">
         <v>5.574912891986063</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I20" t="n">
         <v>5.313588850174216</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.2613240418118467</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L20" t="n">
         <v>0.1742160278745645</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7482466070037630238</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B21" t="n">
         <v>2127</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>191</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>8</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>5</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Like my hair could make you a wig and THEN some💋</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H21" t="n">
         <v>9.35590032910202</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I21" t="n">
         <v>8.979783732957216</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.3761165961448049</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L21" t="n">
         <v>0.235072872590503</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7482090161711369515</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B22" t="n">
         <v>1294</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>92</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>12</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Save for later queen✨
 I hope this video helped someone! I used to never use powders but nobody told me I was walking out of the house looking like I sprayed kitchen oil all over my face🫠 there is a way to mattify your makeup but powder≠matte!</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>7.264296754250386</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>7.109737248840804</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.1545595054095827</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>0.9273570324574961</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7481912140333436206</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B23" t="n">
         <v>1351</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C23" t="n">
         <v>85</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>8</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Replying to @daij52 internal work is necessary</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H23" t="n">
         <v>6.88378978534419</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I23" t="n">
         <v>6.291635825314581</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.5921539600296076</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L23" t="n">
         <v>0.07401924500370095</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7481828379386400046</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B24" t="n">
         <v>602</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C24" t="n">
         <v>61</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D24" t="n">
         <v>7</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>4</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Busy woman on repeat😻</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H24" t="n">
         <v>11.29568106312292</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I24" t="n">
         <v>10.1328903654485</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1.162790697674419</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L24" t="n">
         <v>0.6644518272425249</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/photo/7481698554302729518</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B25" t="n">
         <v>607</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C25" t="n">
         <v>46</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D25" t="n">
         <v>3</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
         <v>8.072487644151565</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I25" t="n">
         <v>7.57825370675453</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.4942339373970346</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7481697341687303454</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B26" t="n">
         <v>950</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C26" t="n">
         <v>48</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D26" t="n">
         <v>13</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Please don’t say “how” if the last time you posted was in 2024. I WORKED MY BEHIND OFFFF THATS HOW!</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H26" t="n">
         <v>6.421052631578947</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I26" t="n">
         <v>5.052631578947368</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.368421052631579</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L26" t="n">
         <v>0.1052631578947368</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7481001160720026923</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>1777</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>85</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>4</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>5</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[ad] PSA: Your skin is visibly dry😬🫠
 The solution? @OSEA Malibu Hyaluronic Acid Body Serum✨
 I’m super excited to share the benefits of this serum with you guys AND give y’all the tea on how to get it for 50% off! Shop in store or online at</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>5.008441193021947</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I27" t="n">
         <v>4.783342712436691</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.2250984805852561</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L27" t="n">
         <v>0.2813731007315701</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7480942280489045290</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B28" t="n">
         <v>1148</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C28" t="n">
         <v>83</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D28" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>3</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>@Maybelline NY changing the drugstore game yet again with this foundation😻
 the formula kind of reminds of me fentys soft blur matte foundation, might I suggest this is a dupe?</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H28" t="n">
         <v>7.40418118466899</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I28" t="n">
         <v>7.229965156794425</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.1742160278745645</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L28" t="n">
         <v>0.2613240418118467</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7480668976821931307</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B29" t="n">
         <v>625</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C29" t="n">
         <v>49</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D29" t="n">
         <v>3</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>3</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Some brands just didn’t make the cut🫠
 Nah im jk. My product favs are always rotating! Also I beg brands to realize that we’re not going to like every SINGLE one of their products… it’s okay to like some and not others! I’ve had brands cut me off because ONE of their products weren’t my favorite like whattt. Just trying to be honest w my audience lol</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H29" t="n">
         <v>8.32</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I29" t="n">
         <v>7.84</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.48</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L29" t="n">
         <v>0.48</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7480638991717518622</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B30" t="n">
         <v>620</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C30" t="n">
         <v>50</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D30" t="n">
         <v>1</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>3</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Y’all I didn’t mean to spill the TEA like that☕️🙃
 My product favs are always rotating! Also I beg brands to realize that we’re not going to like every SINGLE one of their products… it’s okay to like some and not others! I’ve had brands cut me off because ONE of their products weren’t my favorite like whattt. Just trying to be honest w my audience lol</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H30" t="n">
         <v>8.225806451612904</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I30" t="n">
         <v>8.064516129032258</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.1612903225806452</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L30" t="n">
         <v>0.4838709677419355</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7480370966099545375</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B31" t="n">
         <v>586</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C31" t="n">
         <v>60</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D31" t="n">
         <v>6</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>4</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Time for your videos to leave your camera roll and make it to your socials!! You’re watching everyone around you follow your dreams but you’re still not for some reason..</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H31" t="n">
         <v>11.26279863481229</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I31" t="n">
         <v>10.23890784982935</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1.023890784982935</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L31" t="n">
         <v>0.6825938566552902</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7479838467195718943</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
         <v>1562</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C32" t="n">
         <v>106</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D32" t="n">
         <v>4</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>4</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>So when people ask how you knew about the trends so early refer them to this video yw
 Do you agree or disagree?</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H32" t="n">
         <v>7.042253521126761</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I32" t="n">
         <v>6.786171574903969</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.2560819462227913</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L32" t="n">
         <v>0.2560819462227913</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7479557393513286942</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B33" t="n">
         <v>1834</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C33" t="n">
         <v>182</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D33" t="n">
         <v>3</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>27</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Y’all asked so you shall receive 🥳
 Behind the scenes these are some of my ESSENTIALS! Let me know if you want a part 2😻</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H33" t="n">
         <v>10.08724100327154</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I33" t="n">
         <v>9.923664122137405</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.163576881134133</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L33" t="n">
         <v>1.472191930207197</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7479228829500755231</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B34" t="n">
         <v>1319</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C34" t="n">
         <v>183</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D34" t="n">
         <v>5</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>14</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>I’m a model, influencer, and realtor in my early 20s - does saying that make me arrogant? Why, if it’s true?
 We have to collectively END the stigma that we cannot praise ourselves. It’s getting old. If my success offends you then you need to work internally to figure out WHY that is. NORMALIZE BEING PROUD OF YOURSELF, and unapologetically VOCALIZING how COOL YOU ARE!</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H34" t="n">
         <v>14.25322213798332</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I34" t="n">
         <v>13.87414708112206</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.3790750568612585</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L34" t="n">
         <v>1.061410159211524</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7478872345852087583</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B35" t="n">
         <v>1553</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C35" t="n">
         <v>128</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D35" t="n">
         <v>7</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>2</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>The eyeliner please.</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H35" t="n">
         <v>8.692852543464264</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I35" t="n">
         <v>8.242112041210561</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.4507405022537025</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L35" t="n">
         <v>0.128783000643915</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7478492336641625374</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B36" t="n">
         <v>5502</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C36" t="n">
         <v>392</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D36" t="n">
         <v>8</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>50</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Keep watching and I’ll literally tell you how their makeup looks so bomb on camera😻🏆
 Everyone looked so stunning at the Oscars this year! Their makeup gave very natural beauty which I love, so let’s do an Oscar inspired makeup look while I tell yall my fav trends I saw on the carpet, and my trick to photogenic makeup ♥️</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H36" t="n">
         <v>7.270083605961468</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I36" t="n">
         <v>7.124681933842239</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.1454016721192294</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L36" t="n">
         <v>0.9087604507451835</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/photo/7478386134888893738</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B37" t="n">
         <v>1191</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C37" t="n">
         <v>84</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>8</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>1</v>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
         <v>7.724601175482787</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I37" t="n">
         <v>7.052896725440807</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.6717044500419815</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L37" t="n">
         <v>0.08396305625524769</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7478027194170740014</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B38" t="n">
         <v>2377</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>285</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
         <v>10</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>27</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
         <v>12.41060159865377</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I38" t="n">
         <v>11.98990323937737</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.4206983592763988</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L38" t="n">
         <v>1.135885570046277</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7475341377375685918</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>607</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>78</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>2</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Live laugh love España</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>13.17957166392092</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>12.8500823723229</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.3294892915980231</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L39" t="n">
         <v>0.1647446457990115</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7474965233564486942</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>790</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>79</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>2</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>5</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Literally the first thing I did when I got here was get ready for dinner🤣 dinners are an essential part of vacation and the first dinner in Spain did not disappoint😍🇪🇸</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>10.25316455696203</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>10</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.2531645569620253</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L40" t="n">
         <v>0.6329113924050633</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7473895394536213802</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>823</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>49</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>2</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>The hair the nails the LAUNDRY🫠</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H41" t="n">
         <v>6.196840826245444</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I41" t="n">
         <v>5.953827460510328</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.2430133657351154</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L41" t="n">
         <v>0.1215066828675577</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7473665180954594603</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B42" t="n">
         <v>1085</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C42" t="n">
         <v>89</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D42" t="n">
         <v>11</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>3</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Now ppl can actually tell that I’m a redhead lol</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H42" t="n">
         <v>9.216589861751153</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I42" t="n">
         <v>8.202764976958525</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>1.013824884792627</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L42" t="n">
         <v>0.2764976958525346</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7473661249302318382</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B43" t="n">
         <v>1034</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C43" t="n">
         <v>69</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D43" t="n">
         <v>9</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>Do y’all know what it MEANS to have a stylist you TRUST to do your hair the day before you leave the country??? That is so rare bc these braiders be canceling left and right nowadays!!</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H43" t="n">
         <v>7.543520309477756</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I43" t="n">
         <v>6.673114119922631</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.8704061895551257</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7473274721040190766</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B44" t="n">
         <v>1283</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C44" t="n">
         <v>117</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D44" t="n">
         <v>6</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>6</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>You are DESERVING of ALL THINGS GOOD♥️
 What do y’all think of these chiller style chit chats? I lowk feel like im always yelling and talking really fast but this is more authentic to how I am on a day to day (although I am screaming and talking really fast a lot too lmfao)</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H44" t="n">
         <v>9.586905689789555</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I44" t="n">
         <v>9.11925175370226</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.4676539360872954</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L44" t="n">
         <v>0.4676539360872954</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/photo/7473167021363039531</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B45" t="n">
         <v>2091</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C45" t="n">
         <v>205</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D45" t="n">
         <v>8</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>4</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>You are DESERVING of ALL THINGS GOOD♥️
 What do y’all think of these chiller style chit chats? I lowk feel like im always yelling and talking really fast but this is more authentic to how I am on a day to day (although I am screaming and talking really fast a lot too lmfao)</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H45" t="n">
         <v>10.18651362984218</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I45" t="n">
         <v>9.803921568627452</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.3825920612147298</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L45" t="n">
         <v>0.1912960306073649</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7473166019863842094</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B46" t="n">
         <v>20400</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C46" t="n">
         <v>3310</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D46" t="n">
         <v>66</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>112</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Spent the night with @rhode skin night to preview their LA pop-up on Melrose✨💌</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H46" t="n">
         <v>16.54901960784314</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I46" t="n">
         <v>16.22549019607843</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.3235294117647059</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L46" t="n">
         <v>0.5490196078431373</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7472946105186028831</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B47" t="n">
         <v>850</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C47" t="n">
         <v>77</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D47" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>I mean this glam took me 18 minutes so the song kinda works🤣
 Going to a brand event tn!! Can you guess which one in the comments?? Hint: I used a few of their products in this tut😻</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H47" t="n">
         <v>9.647058823529411</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I47" t="n">
         <v>9.058823529411764</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7472468795831962911</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B48" t="n">
         <v>1980</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C48" t="n">
         <v>225</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D48" t="n">
         <v>16</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>5</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Types of people I REFUSE to be around🫠
 This is probably my sassiest video yet lol. Lmk if you agree tho!!</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H48" t="n">
         <v>12.17171717171717</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I48" t="n">
         <v>11.36363636363636</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.8080808080808081</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L48" t="n">
         <v>0.2525252525252525</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7471277641841249582</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B49" t="n">
         <v>3071</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C49" t="n">
         <v>215</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>5</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>6</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>I love this trend🥹</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H49" t="n">
         <v>7.163790296320418</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I49" t="n">
         <v>7.000976880494952</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.162813415825464</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L49" t="n">
         <v>0.1953760989905568</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7471033433322556703</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B50" t="n">
         <v>1616</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C50" t="n">
         <v>171</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D50" t="n">
         <v>7</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>10</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>STOP doing the teamwork trend🫠🙄
 I hope this video helped!! In all honesty, not everyone has what it takes to become an influencer. There is not easy way to do this. So if it looks too good to be true, it probably is mama:(</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H50" t="n">
         <v>11.01485148514852</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I50" t="n">
         <v>10.58168316831683</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.4331683168316832</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L50" t="n">
         <v>0.6188118811881188</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jaylasteinnn/video/7470632412981251374</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B51" t="n">
         <v>6629</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C51" t="n">
         <v>851</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D51" t="n">
         <v>18</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>106</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>This glam is perfect for v-day😏
 #glamtutorial #blackgirlmakeup #blackgirlmakeuptutorial</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H51" t="n">
         <v>13.10906622416654</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I51" t="n">
         <v>12.83753205611706</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.2715341680494796</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L51" t="n">
         <v>1.599034545180269</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jaylasteinnn/video/7470603537727229215</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>949</v>
-      </c>
-      <c r="C46" t="n">
-        <v>58</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>[ad] we’re not limiting cold girl makeup to December only🙄 here’s I did this look in 5 minutes using @ILIA Beauty</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6.42781875658588</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6.111696522655427</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.3161222339304531</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.2107481559536354</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jaylasteinnn/video/7470325172009061662</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1647</v>
-      </c>
-      <c r="C47" t="n">
-        <v>116</v>
-      </c>
-      <c r="D47" t="n">
-        <v>5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>17</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>[ad] we’re not limiting cold girl makeup to December only🙄 here’s I did this look in 5 minutes using @ILIA Beauty</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>7.346690953248331</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7.043108682452945</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.3035822707953855</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.032179720704311</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jaylasteinnn/video/7469924319129308446</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1571</v>
-      </c>
-      <c r="C48" t="n">
-        <v>100</v>
-      </c>
-      <c r="D48" t="n">
-        <v>7</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>13</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Not you going into spring without knowing how you’re going to switch up your makeup🫣
-Y’all I think simple looks are going to be IT this spring!! I love how quick and easy this look is, perfect for makeup beginners or experts🌷</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>6.810948440483769</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6.365372374283895</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.4455760661998727</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.8274984086569064</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jaylasteinnn/video/7468884960586386730</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1728</v>
-      </c>
-      <c r="C49" t="n">
-        <v>97</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>5</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>I was in pure shock because you would expect a formula this creamy to only last an hr but nope. Also MIND YOU I ate pasta salad and steak like please be serious.</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5.729166666666666</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5.613425925925926</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.1157407407407407</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.2893518518518519</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jaylasteinnn/video/7468731537811410222</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1057</v>
-      </c>
-      <c r="C50" t="n">
-        <v>71</v>
-      </c>
-      <c r="D50" t="n">
-        <v>6</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>@rhode skin unlocked my FAVORITE product from them. These viral lipliners are worth all of the hype😻
-Let me explainnn because I know there are very mixed reviews. You know me and my Makeup Forever wherever walnut are LOCKED IN FL, but I always am trying to achieve that effortless overline that blends into my natural lips. Other liners dry down pretty quickly which don’t allow much room for blending, but this one blended so nicely. Tbh, I’d use the Rhode on more of a day to day basis/for natural looks, and my other lipliner favs for more full glams.</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7.28476821192053</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6.717123935666983</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.5676442762535477</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.0946073793755913</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
         </is>
       </c>
     </row>
